--- a/InterfaceAuto/server/File_handle_service/File_handle_service.xlsx
+++ b/InterfaceAuto/server/File_handle_service/File_handle_service.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>Interface</t>
   </si>
@@ -36,7 +36,7 @@
     <t>business_card</t>
   </si>
   <si>
-    <t>agentId=97ccdae1aaea2c617af9ac54f747c8aa</t>
+    <t>agentId=619d86343048d1aaf7dcf29ff1e0e6b8</t>
   </si>
   <si>
     <t>case_list</t>
@@ -48,190 +48,230 @@
     <t>全选_其他</t>
   </si>
   <si>
-    <t>agentId=97ccdae1aaea2c617af9ac54f747c8aa
-causeId=9015</t>
+    <t>agentId=619d86343048d1aaf7dcf29ff1e0e6b8
+causeId=9280</t>
   </si>
   <si>
     <t>一审</t>
   </si>
   <si>
-    <t>agentId=97ccdae1aaea2c617af9ac54f747c8aa
-causeId=9015
-cityId=385
-courtId=240
+    <t>agentId=619d86343048d1aaf7dcf29ff1e0e6b8
+causeId=9280
+cityId=286
+courtId=74
 grade=1
 page=1
 provinceId=51
 size=10
-year=2018</t>
+year=2016</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3B4151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一审</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF3B4151"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>agentId=619d86343048d1aaf7dcf29ff1e0e6b8
+causeId=9280
+cityId=286
+courtId=74
+grade=1
+page=1
+provinceId=51</t>
+  </si>
+  <si>
+    <t>一审3</t>
+  </si>
+  <si>
+    <t>agentId=619d86343048d1aaf7dcf29ff1e0e6b8
+causeId=9280
+cityId=286</t>
+  </si>
+  <si>
+    <t>一审4</t>
   </si>
   <si>
     <t>二审</t>
   </si>
   <si>
-    <t>agentId=97ccdae1aaea2c617af9ac54f747c8aa
-causeId=9015
-cityId=385
-courtId=240
+    <t>agentId=619d86343048d1aaf7dcf29ff1e0e6b8
+causeId=9280
+cityId=286
+courtId=74
 grade=2
 page=1
 provinceId=51
 size=10
-year=2018</t>
+year=2016</t>
   </si>
   <si>
     <t>再审</t>
   </si>
   <si>
-    <t>agentId=97ccdae1aaea2c617af9ac54f747c8aa
-causeId=9015
-cityId=385
-courtId=240
+    <t>agentId=619d86343048d1aaf7dcf29ff1e0e6b8
+causeId=9280
+cityId=286
+courtId=74
 grade=3
 page=1
 provinceId=51
 size=10
-year=2018</t>
+year=2016</t>
   </si>
   <si>
     <t>起诉</t>
   </si>
   <si>
-    <t>agentId=97ccdae1aaea2c617af9ac54f747c8aa
-causeId=9015
-cityId=385
-courtId=240
+    <t>agentId=619d86343048d1aaf7dcf29ff1e0e6b8
+causeId=9280
+cityId=286
+courtId=74
 grade=4
 page=1
 provinceId=51
 size=10
-year=2018</t>
+year=2016</t>
   </si>
   <si>
     <t>庭审</t>
   </si>
   <si>
-    <t>agentId=97ccdae1aaea2c617af9ac54f747c8aa
-causeId=9015
-cityId=385
-courtId=240
+    <t>agentId=619d86343048d1aaf7dcf29ff1e0e6b8
+causeId=9280
+cityId=286
+courtId=74
 grade=5
 page=1
 provinceId=51
 size=10
-year=2018</t>
+year=2016</t>
   </si>
   <si>
     <t>逮捕</t>
   </si>
   <si>
-    <t>agentId=97ccdae1aaea2c617af9ac54f747c8aa
-causeId=9015
-cityId=385
-courtId=240
+    <t>agentId=619d86343048d1aaf7dcf29ff1e0e6b8
+causeId=9280
+cityId=286
+courtId=74
 grade=6
 page=1
 provinceId=51
 size=10
-year=2018</t>
+year=2016</t>
   </si>
   <si>
     <t>移送审查</t>
   </si>
   <si>
-    <t>agentId=97ccdae1aaea2c617af9ac54f747c8aa
-causeId=9015
-cityId=385
-courtId=240
+    <t>agentId=619d86343048d1aaf7dcf29ff1e0e6b8
+causeId=9280
+cityId=286
+courtId=74
 grade=7
 page=1
 provinceId=51
 size=10
-year=2018</t>
+year=2016</t>
   </si>
   <si>
     <t>民事提出诉讼</t>
   </si>
   <si>
-    <t>agentId=97ccdae1aaea2c617af9ac54f747c8aa
-causeId=9015
-cityId=385
-courtId=240
+    <t>agentId=619d86343048d1aaf7dcf29ff1e0e6b8
+causeId=9280
+cityId=286
+courtId=74
 grade=8
 page=1
 provinceId=51
 size=10
-year=2018</t>
+year=2016</t>
   </si>
   <si>
     <t xml:space="preserve">复核 </t>
   </si>
   <si>
-    <t>agentId=97ccdae1aaea2c617af9ac54f747c8aa
-causeId=9015
-cityId=385
-courtId=240
+    <t>agentId=619d86343048d1aaf7dcf29ff1e0e6b8
+causeId=9280
+cityId=286
+courtId=74
 grade=9
 page=1
 provinceId=51
 size=10
-year=2018</t>
+year=2016</t>
   </si>
   <si>
     <t>刑事变更</t>
   </si>
   <si>
-    <t>agentId=97ccdae1aaea2c617af9ac54f747c8aa
-causeId=9015
-cityId=385
-courtId=240
+    <t>agentId=619d86343048d1aaf7dcf29ff1e0e6b8
+causeId=9280
+cityId=286
+courtId=74
 grade=10
 page=1
 provinceId=51
 size=10
-year=2018</t>
+year=2016</t>
   </si>
   <si>
     <t>申诉</t>
   </si>
   <si>
-    <t>agentId=97ccdae1aaea2c617af9ac54f747c8aa
-causeId=9015
-cityId=385
-courtId=240
+    <t>agentId=619d86343048d1aaf7dcf29ff1e0e6b8
+causeId=9280
+cityId=286
+courtId=74
 grade=11
 page=1
 provinceId=51
 size=10
-year=2018</t>
+year=2016</t>
   </si>
   <si>
     <t>特别</t>
   </si>
   <si>
-    <t>agentId=97ccdae1aaea2c617af9ac54f747c8aa
-causeId=9015
-cityId=385
-courtId=240
+    <t>agentId=619d86343048d1aaf7dcf29ff1e0e6b8
+causeId=9280
+cityId=286
+courtId=74
 grade=12
 page=1
 provinceId=51
 size=10
-year=2018</t>
+year=2016</t>
   </si>
   <si>
     <t>执行</t>
   </si>
   <si>
-    <t>agentId=97ccdae1aaea2c617af9ac54f747c8aa
-causeId=9015
-cityId=385
-courtId=240
+    <t>agentId=619d86343048d1aaf7dcf29ff1e0e6b8
+causeId=9280
+cityId=286
+courtId=74
 grade=13
 page=1
 provinceId=51
 size=10
-year=2018</t>
+year=2016</t>
   </si>
   <si>
     <t>count</t>
@@ -243,13 +283,13 @@
     <t>law_firm_detail</t>
   </si>
   <si>
-    <t>firmId=6a5eb6c796b79de867fb64d25e53257f</t>
+    <t>firmId=6850f6b2dfcbf2a8cdd42b1bfc653a8d</t>
   </si>
   <si>
     <t>law_firm_lawyer</t>
   </si>
   <si>
-    <t>firmId=6a5eb6c796b79de867fb64d25e53257f
+    <t>firmId=6850f6b2dfcbf2a8cdd42b1bfc653a8d
 page=1
 size=10</t>
   </si>
@@ -257,7 +297,7 @@
     <t>law_firm_search</t>
   </si>
   <si>
-    <t>cityId=385
+    <t>cityId=286
 name=天津
 page=1
 provinceId=51
@@ -268,8 +308,8 @@
   </si>
   <si>
     <t>ability=true
-causeId=9015
-cityId=385
+causeId=9280
+cityId=286
 page=1
 provinceId=51
 rank=true
@@ -279,54 +319,54 @@
     <t>list_v2</t>
   </si>
   <si>
-    <t>causeId=9015
-cityId=385
-name=天津
+    <t>causeId=9280
+cityId=286
+name=杜文祥
 page=1
 provinceId=51
 size=10
 sort=1
-yearMax=10
-yearMin=0</t>
-  </si>
-  <si>
-    <t>causeId=9015
-cityId=385
-name=天津
+yearMax=99
+yearMin=1</t>
+  </si>
+  <si>
+    <t>causeId=9280
+cityId=286
+name=杜文祥
 page=1
 provinceId=51
 size=10
 sort=2
-yearMax=10
-yearMin=0</t>
-  </si>
-  <si>
-    <t>causeId=9015
-cityId=385
-name=天津
+yearMax=99
+yearMin=1</t>
+  </si>
+  <si>
+    <t>causeId=9280
+cityId=286
+name=杜文祥
 page=1
 provinceId=51
 size=10
 sort=3
-yearMax=10
-yearMin=0</t>
+yearMax=99
+yearMin=1</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>causeId=9015</t>
-  </si>
-  <si>
-    <t>causeId=9015
+    <t>causeId=9280</t>
+  </si>
+  <si>
+    <t>causeId=9280
 provinceId=51</t>
   </si>
   <si>
     <t>search_name</t>
   </si>
   <si>
-    <t>name=武立斌
-workUnit=北京乾源律师事务所</t>
+    <t>name=杜文祥
+workUnit=天津名士律师事务所</t>
   </si>
   <si>
     <t>search_tip</t>
@@ -338,7 +378,7 @@
     <t>search_work_number</t>
   </si>
   <si>
-    <t>workNumber=11101199510132430</t>
+    <t>workNumber=11201198710359530</t>
   </si>
 </sst>
 </file>
@@ -346,9 +386,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -379,7 +419,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,6 +433,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -408,20 +491,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -455,7 +524,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,51 +561,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -531,37 +571,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,145 +751,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,6 +776,32 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,17 +839,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,26 +862,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -830,10 +870,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -842,133 +882,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1336,10 +1376,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1387,7 +1427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="121.5" spans="1:4">
+    <row r="4" ht="27" spans="1:4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1409,7 +1449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="121.5" spans="1:4">
+    <row r="6" customFormat="1" ht="94.5" spans="1:4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1420,7 +1460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="121.5" spans="1:4">
+    <row r="7" customFormat="1" ht="40.5" spans="1:4">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1431,7 +1471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="121.5" spans="1:4">
+    <row r="8" customFormat="1" ht="18.75" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1439,7 +1479,7 @@
         <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" ht="121.5" spans="1:4">
@@ -1447,10 +1487,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" ht="121.5" spans="1:4">
@@ -1458,10 +1498,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" ht="121.5" spans="1:4">
@@ -1469,10 +1509,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" ht="121.5" spans="1:4">
@@ -1480,10 +1520,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" ht="121.5" spans="1:4">
@@ -1491,10 +1531,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" ht="121.5" spans="1:4">
@@ -1502,171 +1542,169 @@
         <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" ht="121.5" spans="1:4">
+    </row>
+    <row r="15" ht="121.5" spans="1:4">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C15"/>
-      <c r="D15" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" ht="121.5" spans="1:4">
+    </row>
+    <row r="16" ht="121.5" spans="1:4">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16"/>
-      <c r="D16" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" ht="121.5" spans="1:4">
+    </row>
+    <row r="17" ht="121.5" spans="1:4">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17"/>
-      <c r="D17" s="2" t="s">
+    </row>
+    <row r="18" customFormat="1" ht="121.5" spans="1:4">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="D18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="19" customFormat="1" ht="121.5" spans="1:4">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="D19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="20" customFormat="1" ht="121.5" spans="1:4">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
+      <c r="D20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" ht="40.5" spans="1:4">
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21" s="2" t="s">
         <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" ht="40.5" spans="1:4">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" t="s">
         <v>43</v>
       </c>
-      <c r="D22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" ht="67.5" spans="1:4">
-      <c r="A23" t="s">
+    </row>
+    <row r="26" customFormat="1" ht="67.5" spans="1:4">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
         <v>43</v>
       </c>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" ht="94.5" spans="1:4">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" ht="121.5" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" ht="121.5" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28"/>
-      <c r="C28"/>
+    </row>
+    <row r="28" ht="94.5" spans="1:4">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
       <c r="D28" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" ht="121.5" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" customFormat="1" ht="27" spans="1:4">
-      <c r="A31" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31"/>
-      <c r="C31"/>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" ht="121.5" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" ht="121.5" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D31" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" ht="27" spans="1:4">
-      <c r="A32" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" ht="121.5" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>55</v>
@@ -1680,21 +1718,45 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" customFormat="1" ht="27" spans="1:4">
       <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D34" t="s">
+    </row>
+    <row r="35" ht="27" spans="1:4">
+      <c r="A35" t="s">
         <v>59</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="business_card"/>
-    <hyperlink ref="A26" r:id="rId1" display="list_v2"/>
-    <hyperlink ref="A27" r:id="rId1" display="list_v2"/>
-    <hyperlink ref="A28" r:id="rId1" display="list_v2"/>
     <hyperlink ref="A29" r:id="rId1" display="list_v2"/>
+    <hyperlink ref="A30" r:id="rId1" display="list_v2"/>
+    <hyperlink ref="A31" r:id="rId1" display="list_v2"/>
+    <hyperlink ref="A32" r:id="rId1" display="list_v2"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/InterfaceAuto/server/File_handle_service/File_handle_service.xlsx
+++ b/InterfaceAuto/server/File_handle_service/File_handle_service.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27165" windowHeight="13065"/>
+    <workbookView windowWidth="19695" windowHeight="11535" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="agent" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="common" sheetId="2" r:id="rId2"/>
+    <sheet name="excel" sheetId="4" r:id="rId3"/>
+    <sheet name="prejudge" sheetId="5" r:id="rId4"/>
+    <sheet name="hide_names" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81">
   <si>
     <t>Interface</t>
   </si>
@@ -380,6 +382,57 @@
   <si>
     <t>workNumber=11201198710359530</t>
   </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>name=离婚</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>court</t>
+  </si>
+  <si>
+    <t>provinceId=51
+cityId=286</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>town</t>
+  </si>
+  <si>
+    <t>cityId=286</t>
+  </si>
+  <si>
+    <t>causeWeight</t>
+  </si>
+  <si>
+    <t>eId=512
+topId=1</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84</t>
+  </si>
+  <si>
+    <t>qId=5f9bfa83e0b5a7d9ac2e9a08c9f9ed84
+pId=50</t>
+  </si>
+  <si>
+    <t>similarCase</t>
+  </si>
+  <si>
+    <t>mediate</t>
+  </si>
+  <si>
+    <t>file=data\</t>
+  </si>
 </sst>
 </file>
 
@@ -387,9 +440,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -419,7 +472,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,15 +531,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,15 +599,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,84 +614,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -571,13 +624,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,169 +804,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,17 +818,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,44 +844,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,6 +889,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -870,10 +923,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -882,145 +935,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1378,8 +1434,8 @@
   <sheetPr/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1409,7 +1465,7 @@
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
@@ -1434,7 +1490,7 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1442,10 +1498,10 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1453,10 +1509,10 @@
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1464,10 +1520,10 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1475,10 +1531,10 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1486,10 +1542,10 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1497,10 +1553,10 @@
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1508,10 +1564,10 @@
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1519,10 +1575,10 @@
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1530,10 +1586,10 @@
       <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1541,10 +1597,10 @@
       <c r="A14" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1552,10 +1608,10 @@
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1563,10 +1619,10 @@
       <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1574,10 +1630,10 @@
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1585,10 +1641,10 @@
       <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1596,10 +1652,10 @@
       <c r="A19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1607,10 +1663,10 @@
       <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1642,7 +1698,7 @@
       <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1658,7 +1714,7 @@
       <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1674,12 +1730,12 @@
       <c r="A28" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" ht="15.75" spans="1:4">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D29" t="s">
@@ -1687,26 +1743,26 @@
       </c>
     </row>
     <row r="30" ht="121.5" spans="1:4">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="31" customFormat="1" ht="121.5" spans="1:4">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="121.5" spans="1:4">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1722,7 +1778,7 @@
       <c r="A34" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1730,7 +1786,7 @@
       <c r="A35" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1767,14 +1823,79 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="3" max="3" width="29.25" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="27" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1784,14 +1905,146 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:3">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="31.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:3">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:3">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:3">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
